--- a/Anexos de la asignatura/programación clases.xlsx
+++ b/Anexos de la asignatura/programación clases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCE91BA-B31D-4198-96C5-8B44A9011383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A8529E-B8A7-45E2-98A3-8A43089FCF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3072C0ED-AC00-4C20-BD1E-2D5B3C323F03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3072C0ED-AC00-4C20-BD1E-2D5B3C323F03}"/>
   </bookViews>
   <sheets>
-    <sheet name="Programacion de clases" sheetId="1" r:id="rId1"/>
+    <sheet name="Programacion de clases" sheetId="6" r:id="rId1"/>
     <sheet name="detalle de cada clase" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="188">
   <si>
     <t>Clase</t>
   </si>
@@ -1159,6 +1159,12 @@
   </si>
   <si>
     <t>Descarga del software CoppeliaSim:</t>
+  </si>
+  <si>
+    <t>Apoyo en dudas sobre la Actividad práctica</t>
+  </si>
+  <si>
+    <t>Clase de apoyo,  dudas y consultas</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1556,16 +1562,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1602,9 +1616,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,9 +1716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1717,9 +1725,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1732,12 +1737,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1757,12 +1756,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1781,6 +1774,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1791,12 +1787,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1806,17 +1813,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1829,7 +1836,27 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2236,11 +2263,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E627BFD-DB18-465D-B516-1238B35F2A1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE167A10-DE7B-4F8A-927D-BE5678186671}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2254,666 +2281,683 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="78" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="72" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="72" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="72" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="82" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="E7" s="35"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="40"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="94"/>
+      <c r="F10" s="86"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="82"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="93"/>
+      <c r="B13" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="82"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="82"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="95"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="93"/>
+      <c r="B15" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="82"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="82"/>
+      <c r="F16" s="74"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="95"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="93"/>
+      <c r="B17" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="82"/>
+      <c r="F17" s="74"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="82"/>
+      <c r="F18" s="74"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="95"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="93"/>
+      <c r="B19" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="82"/>
+      <c r="F19" s="74"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="82"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="95"/>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="93"/>
+      <c r="B21" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="82"/>
+      <c r="F21" s="74"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="74"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="93"/>
+      <c r="B23" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="11">
         <v>3</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E23" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="82"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="95"/>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="F23" s="74"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="12">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E24" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="82"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="13">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="82"/>
+      <c r="F24" s="74"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="95"/>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="93"/>
+      <c r="B25" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="82"/>
+      <c r="E25" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="82"/>
+      <c r="E26" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="74"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="95"/>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="82"/>
+      <c r="E27" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="74"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="74"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="93"/>
+      <c r="B29" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="82"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="95"/>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="F29" s="74"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="12">
         <v>3</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E30" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="82"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="F30" s="74"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="93"/>
+      <c r="B31" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="13">
+        <v>3</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="74"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="14">
         <v>4</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D32" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E32" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="82"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="95"/>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="16">
-        <v>4</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="82"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="16">
-        <v>4</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="82"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="95"/>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>4</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="82"/>
+      <c r="E33" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="74"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>4</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="74"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="93"/>
+      <c r="B35" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="15">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="74"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="15">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="82"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="95"/>
-      <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="17">
+      <c r="F36" s="74"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="93"/>
+      <c r="B37" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="15">
         <v>4</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E37" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="82"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="82"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="95"/>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="82"/>
+      <c r="F37" s="74"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="82"/>
+      <c r="C38" s="16">
+        <v>4</v>
+      </c>
+      <c r="D38" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F38" s="74"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="95"/>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="93"/>
+      <c r="B39" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="19"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="82"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="74"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="82"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="74"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="95"/>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="93"/>
+      <c r="B41" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="82"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="74"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="81"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="73"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="95"/>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="93"/>
+      <c r="B43" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="81"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="73"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="81"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="73"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="95"/>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="93"/>
+      <c r="B45" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="81"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{3BD519BD-3CFD-4B51-BD15-1A2AB57C0D70}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{D3EDC47F-CFF7-4666-BF34-6894BA3F5B0F}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{BA4976A2-C08A-4A66-90D7-4EF87802344B}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{A15A5C15-3F88-46BB-84DD-1F5EBE97D51A}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{25BD7536-E23C-4EF1-9B7D-3014403B0F7A}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{32BB1B7C-54E0-4432-AB0B-55A382257E7C}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{2CC073CE-575A-4A88-A3C4-9072E644026B}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{47F3F9FB-896F-4F8B-88B7-59AE34417F7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2922,768 +2966,825 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EED75D-B57D-46A5-9BD8-DC073801F29F}">
-  <dimension ref="B2:M44"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="107.44140625" customWidth="1"/>
-    <col min="5" max="5" width="73.77734375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="73.77734375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="42" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="4" customWidth="1"/>
     <col min="9" max="9" width="114.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="43"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="72" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="72" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="72" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="66" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="43"/>
-    </row>
-    <row r="10" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="53" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="96" t="s">
+      <c r="H10" s="94" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="53" t="s">
+    <row r="11" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="96"/>
-    </row>
-    <row r="12" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="53" t="s">
+      <c r="H11" s="94"/>
+    </row>
+    <row r="12" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="96"/>
-    </row>
-    <row r="13" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="55" t="s">
+      <c r="H12" s="94"/>
+    </row>
+    <row r="13" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="97"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="2:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="43"/>
-    </row>
-    <row r="17" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="96" t="s">
         <v>178</v>
       </c>
       <c r="H17" s="98" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
+    <row r="18" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="100"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="98"/>
-      <c r="I18" s="77"/>
-    </row>
-    <row r="19" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="53" t="s">
+      <c r="I18" s="71"/>
+    </row>
+    <row r="19" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="100"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="98"/>
     </row>
-    <row r="20" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53" t="s">
+    <row r="20" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="88" t="s">
+      <c r="F20" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="100"/>
+      <c r="G20" s="96"/>
       <c r="H20" s="98"/>
     </row>
-    <row r="21" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="53" t="s">
+    <row r="21" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="100"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="98"/>
     </row>
-    <row r="22" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="100"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="98"/>
     </row>
-    <row r="23" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="53" t="s">
+    <row r="23" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="100"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="98"/>
     </row>
-    <row r="24" spans="2:13" s="36" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="55" t="s">
+    <row r="24" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="99"/>
-    </row>
-    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="41" t="s">
+      <c r="G24" s="96"/>
+      <c r="H24" s="98"/>
+    </row>
+    <row r="25" spans="2:13" s="34" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="68"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="99"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="49" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C28" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D28" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E28" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F28" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G28" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H28" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43"/>
-    </row>
-    <row r="28" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="38" t="s">
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="41"/>
+    </row>
+    <row r="29" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D29" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E29" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="88" t="s">
+      <c r="F29" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="G28" s="100" t="s">
+      <c r="G29" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="98" t="s">
+      <c r="H29" s="98" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="54" t="s">
+    <row r="30" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D30" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="67" t="s">
+      <c r="E30" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F30" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="98"/>
-    </row>
-    <row r="30" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="54" t="s">
+      <c r="G30" s="96"/>
+      <c r="H30" s="98"/>
+    </row>
+    <row r="31" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D31" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E31" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="88" t="s">
+      <c r="F31" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="100"/>
-      <c r="H30" s="98"/>
-    </row>
-    <row r="31" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="54" t="s">
+      <c r="G31" s="96"/>
+      <c r="H31" s="98"/>
+    </row>
+    <row r="32" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D32" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E32" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="F32" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="100"/>
-      <c r="H31" s="98"/>
-    </row>
-    <row r="32" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="54" t="s">
+      <c r="G32" s="96"/>
+      <c r="H32" s="98"/>
+    </row>
+    <row r="33" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D33" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E33" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="88" t="s">
+      <c r="F33" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="100"/>
-      <c r="H32" s="98"/>
-    </row>
-    <row r="33" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="54" t="s">
+      <c r="G33" s="96"/>
+      <c r="H33" s="98"/>
+    </row>
+    <row r="34" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D34" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E34" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="88" t="s">
+      <c r="F34" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="100"/>
-      <c r="H33" s="98"/>
-    </row>
-    <row r="34" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="54" t="s">
+      <c r="G34" s="96"/>
+      <c r="H34" s="98"/>
+    </row>
+    <row r="35" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D35" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E35" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="88" t="s">
+      <c r="F35" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="100"/>
-      <c r="H34" s="98"/>
-    </row>
-    <row r="35" spans="2:13" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="56" t="s">
+      <c r="G35" s="96"/>
+      <c r="H35" s="98"/>
+    </row>
+    <row r="36" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D36" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E36" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F36" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="G35" s="101"/>
-      <c r="H35" s="99"/>
-    </row>
-    <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="41" t="s">
+      <c r="G36" s="96"/>
+      <c r="H36" s="98"/>
+    </row>
+    <row r="37" spans="2:13" s="34" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="68"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="99"/>
+    </row>
+    <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-    </row>
-    <row r="38" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="49" t="s">
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C40" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D40" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E40" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F40" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G40" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H40" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="43"/>
-    </row>
-    <row r="39" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="54" t="s">
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="41"/>
+    </row>
+    <row r="41" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D41" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="E41" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="76" t="s">
+      <c r="F41" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="G39" s="102" t="s">
+      <c r="G41" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="H39" s="98" t="s">
+      <c r="H41" s="98" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="54" t="s">
+    <row r="42" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D42" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="67" t="s">
+      <c r="E42" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="76" t="s">
+      <c r="F42" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="102"/>
-      <c r="H40" s="98"/>
-    </row>
-    <row r="41" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="54" t="s">
+      <c r="G42" s="100"/>
+      <c r="H42" s="98"/>
+    </row>
+    <row r="43" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D43" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="E43" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F43" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="102"/>
-      <c r="H41" s="98"/>
-    </row>
-    <row r="42" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="54" t="s">
+      <c r="G43" s="100"/>
+      <c r="H43" s="98"/>
+    </row>
+    <row r="44" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D44" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E44" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="76" t="s">
+      <c r="F44" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="G42" s="102"/>
-      <c r="H42" s="98"/>
-    </row>
-    <row r="43" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="54" t="s">
+      <c r="G44" s="100"/>
+      <c r="H44" s="98"/>
+    </row>
+    <row r="45" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D45" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="67" t="s">
+      <c r="E45" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="76" t="s">
+      <c r="F45" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="102"/>
-      <c r="H43" s="98"/>
-    </row>
-    <row r="44" spans="2:13" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="56" t="s">
+      <c r="G45" s="100"/>
+      <c r="H45" s="98"/>
+    </row>
+    <row r="46" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="80" t="s">
+      <c r="D46" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="79" t="s">
+      <c r="E46" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="93" t="s">
+      <c r="F46" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="99"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="98"/>
+    </row>
+    <row r="47" spans="2:13" s="34" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="68"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="H41:H47"/>
     <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H17:H24"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="H39:H44"/>
-    <mergeCell ref="G17:G24"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G17:G25"/>
+    <mergeCell ref="H17:H25"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="H29:H37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D17:D24">
+  <conditionalFormatting sqref="D17:D25">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G39:G44" r:id="rId1" display="Escenarios Módulo 4" xr:uid="{C6C41DCC-C448-4A39-AFE1-B28EC99F3D6B}"/>
-    <hyperlink ref="G28:G35" r:id="rId2" display="Escenarios Módulo 3" xr:uid="{BFEADBC3-521B-4ECE-959A-35CB561780A5}"/>
+    <hyperlink ref="G41:G46" r:id="rId1" display="Escenarios Módulo 4" xr:uid="{C6C41DCC-C448-4A39-AFE1-B28EC99F3D6B}"/>
+    <hyperlink ref="G29:G36" r:id="rId2" display="Escenarios Módulo 3" xr:uid="{BFEADBC3-521B-4ECE-959A-35CB561780A5}"/>
     <hyperlink ref="G17:G24" r:id="rId3" display="Escenarios Módulo 2" xr:uid="{A6810968-17A6-47CD-B94F-C6EE7432244D}"/>
     <hyperlink ref="H10:H13" r:id="rId4" display="Evaluaciones Módulo 1" xr:uid="{96E4E0F6-B5A6-466B-BE12-641765A755B4}"/>
     <hyperlink ref="H17:H24" r:id="rId5" display="Evaluaciones Módulo 2" xr:uid="{3F1114EE-A0E4-4B8F-AA21-3D50C08399E3}"/>
-    <hyperlink ref="H28:H35" r:id="rId6" display="Evaluaciones Módulo 3" xr:uid="{90F1FA96-9D04-4475-9A00-DF46D440159F}"/>
-    <hyperlink ref="H39:H44" r:id="rId7" display="Evaluaciones Módulo 4" xr:uid="{6F984795-FCE9-4580-B232-2C7622355D19}"/>
+    <hyperlink ref="H29:H36" r:id="rId6" display="Evaluaciones Módulo 3" xr:uid="{90F1FA96-9D04-4475-9A00-DF46D440159F}"/>
+    <hyperlink ref="H41:H46" r:id="rId7" display="Evaluaciones Módulo 4" xr:uid="{6F984795-FCE9-4580-B232-2C7622355D19}"/>
     <hyperlink ref="E5" r:id="rId8" xr:uid="{CF3FF08B-C2FB-437E-8A5C-A0E156AC9FF7}"/>
     <hyperlink ref="E4" r:id="rId9" xr:uid="{7D1D5A53-EC81-4FBB-8023-98C1CF4B0E85}"/>
     <hyperlink ref="E3" r:id="rId10" xr:uid="{47529D79-4A93-4546-B403-3883370CE158}"/>
     <hyperlink ref="E6" r:id="rId11" xr:uid="{7F586351-DF4F-4BAE-BA91-120386225829}"/>
-    <hyperlink ref="F39:F44" r:id="rId12" display="inteligencia artificial Suart Russell_x000a_Cap 1" xr:uid="{4CC032AE-8C07-4B8C-ABAB-B0889E32911D}"/>
-    <hyperlink ref="F33:F35" r:id="rId13" display="Robotics, Vision and Control_x000a_Peter Corke_x000a_Part II Cap 5" xr:uid="{2D5897FF-0066-4F66-A60B-DD4DFB8C5EE4}"/>
+    <hyperlink ref="F41:F46" r:id="rId12" display="inteligencia artificial Suart Russell_x000a_Cap 1" xr:uid="{4CC032AE-8C07-4B8C-ABAB-B0889E32911D}"/>
+    <hyperlink ref="F34:F36" r:id="rId13" display="Robotics, Vision and Control_x000a_Peter Corke_x000a_Part II Cap 5" xr:uid="{2D5897FF-0066-4F66-A60B-DD4DFB8C5EE4}"/>
     <hyperlink ref="F21:F24" r:id="rId14" display="Robotics, Vision and Control_x000a_Part II Cap 4" xr:uid="{909838F9-A699-462C-A38D-9EE456E73AC4}"/>
     <hyperlink ref="F17" r:id="rId15" xr:uid="{94BB082B-CB40-4060-AF34-093795EEE7DA}"/>
     <hyperlink ref="F10:F13" r:id="rId16" display="Fundamentos de Robótica _x000a_Antonio Barrientos_x000a_Cap 1" xr:uid="{BFE06377-A746-40D3-8CAB-CADFB2277285}"/>
     <hyperlink ref="F18:F20" r:id="rId17" display="Fundamentos de Robótica _x000a_Antonio Barrientos_x000a_Cap 3" xr:uid="{E290363F-5896-48A1-AB27-F4E052CE07DB}"/>
-    <hyperlink ref="F28:F32" r:id="rId18" display="Robótica_x000a_G. Zabala_x000a_Cap 5" xr:uid="{0BDD302A-083C-4ED4-9C13-8093B4423885}"/>
+    <hyperlink ref="F29:F33" r:id="rId18" display="Robótica_x000a_G. Zabala_x000a_Cap 5" xr:uid="{0BDD302A-083C-4ED4-9C13-8093B4423885}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/Anexos de la asignatura/programación clases.xlsx
+++ b/Anexos de la asignatura/programación clases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A8529E-B8A7-45E2-98A3-8A43089FCF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D580229F-3E37-4C8E-BE94-C1CE594892E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{3072C0ED-AC00-4C20-BD1E-2D5B3C323F03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3072C0ED-AC00-4C20-BD1E-2D5B3C323F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Programacion de clases" sheetId="6" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>Semana</t>
   </si>
   <si>
-    <t>Topico a trabajar</t>
-  </si>
-  <si>
     <t>Introducción a la robótica</t>
   </si>
   <si>
@@ -1165,6 +1162,9 @@
   </si>
   <si>
     <t>Clase de apoyo,  dudas y consultas</t>
+  </si>
+  <si>
+    <t>Tópico a trabajar</t>
   </si>
 </sst>
 </file>
@@ -1807,6 +1807,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1817,18 +1829,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE167A10-DE7B-4F8A-927D-BE5678186671}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,7 +2291,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2299,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2310,10 +2310,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2321,10 +2321,10 @@
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2332,10 +2332,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
@@ -2358,7 +2358,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="F9" s="83"/>
     </row>
@@ -2376,7 +2376,7 @@
         <v>53</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="86"/>
     </row>
@@ -2392,7 +2392,7 @@
         <v>53</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="38"/>
     </row>
@@ -2410,7 +2410,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="74"/>
     </row>
@@ -2426,7 +2426,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="74"/>
     </row>
@@ -2444,7 +2444,7 @@
         <v>56</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="74"/>
     </row>
@@ -2460,7 +2460,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="74"/>
     </row>
@@ -2478,7 +2478,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="74"/>
     </row>
@@ -2494,7 +2494,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="74"/>
     </row>
@@ -2512,7 +2512,7 @@
         <v>56</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="74"/>
     </row>
@@ -2528,7 +2528,7 @@
         <v>56</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="74"/>
     </row>
@@ -2546,7 +2546,7 @@
         <v>56</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="74"/>
     </row>
@@ -2562,7 +2562,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="74"/>
     </row>
@@ -2577,10 +2577,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" s="74"/>
     </row>
@@ -2593,10 +2593,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" s="74"/>
     </row>
@@ -2614,7 +2614,7 @@
         <v>53</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="74"/>
     </row>
@@ -2630,7 +2630,7 @@
         <v>56</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="74"/>
     </row>
@@ -2648,7 +2648,7 @@
         <v>56</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="74"/>
     </row>
@@ -2664,7 +2664,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="74"/>
     </row>
@@ -2682,7 +2682,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="74"/>
     </row>
@@ -2698,7 +2698,7 @@
         <v>56</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" s="74"/>
     </row>
@@ -2716,7 +2716,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" s="74"/>
     </row>
@@ -2729,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="74"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" s="74"/>
     </row>
@@ -2766,7 +2766,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="74"/>
     </row>
@@ -2784,7 +2784,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F34" s="74"/>
     </row>
@@ -2800,7 +2800,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F35" s="74"/>
     </row>
@@ -2818,7 +2818,7 @@
         <v>56</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F36" s="74"/>
     </row>
@@ -2834,7 +2834,7 @@
         <v>56</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F37" s="74"/>
     </row>
@@ -2849,10 +2849,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F38" s="74"/>
     </row>
@@ -2934,12 +2934,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -2952,6 +2946,12 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{25BD7536-E23C-4EF1-9B7D-3014403B0F7A}"/>
@@ -2968,18 +2968,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EED75D-B57D-46A5-9BD8-DC073801F29F}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="107.44140625" customWidth="1"/>
-    <col min="5" max="5" width="73.77734375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="81.21875" customWidth="1"/>
+    <col min="5" max="5" width="59.21875" style="27" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="114.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2988,40 +2988,40 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D3" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="72" t="s">
         <v>136</v>
-      </c>
-      <c r="E3" s="72" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D4" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D5" s="67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D6" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -3038,16 +3038,16 @@
         <v>52</v>
       </c>
       <c r="D9" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>79</v>
-      </c>
       <c r="F9" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="49" t="s">
         <v>76</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>77</v>
       </c>
       <c r="H9" s="50" t="s">
         <v>54</v>
@@ -3058,96 +3058,96 @@
       <c r="L9" s="42"/>
       <c r="M9" s="41"/>
     </row>
-    <row r="10" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" s="34" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="94" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="34" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="94"/>
-    </row>
-    <row r="12" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="H11" s="98"/>
+    </row>
+    <row r="12" spans="2:13" s="34" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="51" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="94"/>
-    </row>
-    <row r="13" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="H12" s="98"/>
+    </row>
+    <row r="13" spans="2:13" s="34" customFormat="1" ht="107.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="95"/>
+        <v>83</v>
+      </c>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -3164,19 +3164,19 @@
         <v>52</v>
       </c>
       <c r="D16" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>79</v>
-      </c>
       <c r="F16" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="49" t="s">
-        <v>77</v>
-      </c>
       <c r="H16" s="50" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
@@ -3184,7 +3184,7 @@
       <c r="L16" s="42"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" s="34" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="51" t="s">
         <v>23</v>
       </c>
@@ -3192,22 +3192,22 @@
         <v>56</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="98" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="34" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="51" t="s">
         <v>24</v>
       </c>
@@ -3215,19 +3215,19 @@
         <v>56</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="98"/>
+        <v>141</v>
+      </c>
+      <c r="G18" s="100"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="71"/>
     </row>
-    <row r="19" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" s="34" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="51" t="s">
         <v>25</v>
       </c>
@@ -3235,18 +3235,18 @@
         <v>53</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="98"/>
-    </row>
-    <row r="20" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="G19" s="100"/>
+      <c r="H19" s="96"/>
+    </row>
+    <row r="20" spans="2:13" s="34" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="51" t="s">
         <v>26</v>
       </c>
@@ -3254,18 +3254,18 @@
         <v>53</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="98"/>
-    </row>
-    <row r="21" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="G20" s="100"/>
+      <c r="H20" s="96"/>
+    </row>
+    <row r="21" spans="2:13" s="34" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="51" t="s">
         <v>27</v>
       </c>
@@ -3273,18 +3273,18 @@
         <v>56</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="98"/>
-    </row>
-    <row r="22" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="G21" s="100"/>
+      <c r="H21" s="96"/>
+    </row>
+    <row r="22" spans="2:13" s="34" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="51" t="s">
         <v>28</v>
       </c>
@@ -3292,18 +3292,18 @@
         <v>56</v>
       </c>
       <c r="D22" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="63" t="s">
-        <v>94</v>
-      </c>
       <c r="F22" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="98"/>
-    </row>
-    <row r="23" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="G22" s="100"/>
+      <c r="H22" s="96"/>
+    </row>
+    <row r="23" spans="2:13" s="34" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51" t="s">
         <v>29</v>
       </c>
@@ -3311,18 +3311,18 @@
         <v>56</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="96"/>
-      <c r="H23" s="98"/>
-    </row>
-    <row r="24" spans="2:13" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="G23" s="100"/>
+      <c r="H23" s="96"/>
+    </row>
+    <row r="24" spans="2:13" s="34" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="51" t="s">
         <v>30</v>
       </c>
@@ -3330,38 +3330,38 @@
         <v>56</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="96"/>
-      <c r="H24" s="98"/>
+        <v>144</v>
+      </c>
+      <c r="G24" s="100"/>
+      <c r="H24" s="96"/>
     </row>
     <row r="25" spans="2:13" s="34" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="53" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="68"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="99"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -3378,19 +3378,19 @@
         <v>52</v>
       </c>
       <c r="D28" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>79</v>
-      </c>
       <c r="F28" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="49" t="s">
-        <v>77</v>
-      </c>
       <c r="H28" s="50" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
@@ -3398,7 +3398,7 @@
       <c r="L28" s="42"/>
       <c r="M28" s="41"/>
     </row>
-    <row r="29" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="58" t="s">
         <v>32</v>
       </c>
@@ -3406,22 +3406,22 @@
         <v>53</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="96" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="98" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="G29" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="58" t="s">
         <v>33</v>
       </c>
@@ -3429,18 +3429,18 @@
         <v>53</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="98"/>
-    </row>
-    <row r="31" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="G30" s="100"/>
+      <c r="H30" s="96"/>
+    </row>
+    <row r="31" spans="2:13" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="58" t="s">
         <v>34</v>
       </c>
@@ -3448,18 +3448,18 @@
         <v>56</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="96"/>
-      <c r="H31" s="98"/>
-    </row>
-    <row r="32" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="G31" s="100"/>
+      <c r="H31" s="96"/>
+    </row>
+    <row r="32" spans="2:13" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="58" t="s">
         <v>35</v>
       </c>
@@ -3467,18 +3467,18 @@
         <v>53</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="96"/>
-      <c r="H32" s="98"/>
-    </row>
-    <row r="33" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="G32" s="100"/>
+      <c r="H32" s="96"/>
+    </row>
+    <row r="33" spans="2:13" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="58" t="s">
         <v>36</v>
       </c>
@@ -3486,18 +3486,18 @@
         <v>56</v>
       </c>
       <c r="D33" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="63" t="s">
-        <v>108</v>
-      </c>
       <c r="F33" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="G33" s="96"/>
-      <c r="H33" s="98"/>
-    </row>
-    <row r="34" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="G33" s="100"/>
+      <c r="H33" s="96"/>
+    </row>
+    <row r="34" spans="2:13" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="58" t="s">
         <v>37</v>
       </c>
@@ -3505,18 +3505,18 @@
         <v>56</v>
       </c>
       <c r="D34" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="63" t="s">
-        <v>110</v>
-      </c>
       <c r="F34" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" s="96"/>
-      <c r="H34" s="98"/>
-    </row>
-    <row r="35" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="G34" s="100"/>
+      <c r="H34" s="96"/>
+    </row>
+    <row r="35" spans="2:13" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="58" t="s">
         <v>38</v>
       </c>
@@ -3524,18 +3524,18 @@
         <v>56</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="96"/>
-      <c r="H35" s="98"/>
-    </row>
-    <row r="36" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="G35" s="100"/>
+      <c r="H35" s="96"/>
+    </row>
+    <row r="36" spans="2:13" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="58" t="s">
         <v>39</v>
       </c>
@@ -3543,38 +3543,38 @@
         <v>56</v>
       </c>
       <c r="D36" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="98"/>
+        <v>146</v>
+      </c>
+      <c r="G36" s="100"/>
+      <c r="H36" s="96"/>
     </row>
     <row r="37" spans="2:13" s="34" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="53" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D37" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="68"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="99"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="97"/>
     </row>
     <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -3591,19 +3591,19 @@
         <v>52</v>
       </c>
       <c r="D40" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49" t="s">
-        <v>79</v>
-      </c>
       <c r="F40" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G40" s="49" t="s">
-        <v>77</v>
-      </c>
       <c r="H40" s="50" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
@@ -3619,19 +3619,19 @@
         <v>53</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="H41" s="98" t="s">
-        <v>184</v>
+        <v>173</v>
+      </c>
+      <c r="G41" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="H41" s="96" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
@@ -3642,16 +3642,16 @@
         <v>53</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" s="100"/>
-      <c r="H42" s="98"/>
+        <v>173</v>
+      </c>
+      <c r="G42" s="94"/>
+      <c r="H42" s="96"/>
     </row>
     <row r="43" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
@@ -3661,16 +3661,16 @@
         <v>53</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E43" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="98"/>
+        <v>176</v>
+      </c>
+      <c r="G43" s="94"/>
+      <c r="H43" s="96"/>
     </row>
     <row r="44" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="58" t="s">
@@ -3680,16 +3680,16 @@
         <v>53</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G44" s="100"/>
-      <c r="H44" s="98"/>
+        <v>175</v>
+      </c>
+      <c r="G44" s="94"/>
+      <c r="H44" s="96"/>
     </row>
     <row r="45" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="58" t="s">
@@ -3699,16 +3699,16 @@
         <v>56</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="G45" s="100"/>
-      <c r="H45" s="98"/>
+        <v>174</v>
+      </c>
+      <c r="G45" s="94"/>
+      <c r="H45" s="96"/>
     </row>
     <row r="46" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="58" t="s">
@@ -3718,33 +3718,33 @@
         <v>53</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E46" s="92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="100"/>
-      <c r="H46" s="98"/>
+        <v>174</v>
+      </c>
+      <c r="G46" s="94"/>
+      <c r="H46" s="96"/>
     </row>
     <row r="47" spans="2:13" s="34" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D47" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47" s="68"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="99"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="7">
